--- a/US_Gross_Output_by_Industry.xlsx
+++ b/US_Gross_Output_by_Industry.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="214">
   <si>
     <t>Real Gross Output by industry</t>
   </si>
@@ -42,63 +42,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
   </si>
   <si>
     <t xml:space="preserve">    1</t>
@@ -827,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,6 +786,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,7 +1109,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1278,72 +1224,72 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>24</v>
+        <v>213</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1997</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1998</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2003</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2004</v>
+      </c>
+      <c r="K6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="L6" s="10">
+        <v>2006</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2007</v>
+      </c>
+      <c r="N6" s="10">
+        <v>2008</v>
+      </c>
+      <c r="O6" s="10">
+        <v>2009</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2010</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2011</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2012</v>
+      </c>
+      <c r="S6" s="10">
+        <v>2013</v>
+      </c>
+      <c r="T6" s="10">
+        <v>2014</v>
+      </c>
+      <c r="U6" s="10">
+        <v>2015</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>19990.3</v>
@@ -1405,10 +1351,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>17479.7</v>
@@ -1470,10 +1416,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>305.60000000000002</v>
@@ -1535,10 +1481,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>265</v>
@@ -1600,10 +1546,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
         <v>41</v>
@@ -1665,10 +1611,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4">
         <v>363.1</v>
@@ -1730,10 +1676,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <v>219.4</v>
@@ -1795,10 +1741,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4">
         <v>112.2</v>
@@ -1860,10 +1806,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4">
         <v>31.5</v>
@@ -1925,10 +1871,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4">
         <v>387.5</v>
@@ -1990,10 +1936,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4">
         <v>1170</v>
@@ -2055,10 +2001,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4">
         <v>4571.3</v>
@@ -2120,10 +2066,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4">
         <v>2148.6999999999998</v>
@@ -2185,10 +2131,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4">
         <v>89.1</v>
@@ -2250,10 +2196,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4">
         <v>115.7</v>
@@ -2315,10 +2261,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4">
         <v>223.7</v>
@@ -2380,10 +2326,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4">
         <v>330.1</v>
@@ -2445,10 +2391,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4">
         <v>337.4</v>
@@ -2510,10 +2456,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4">
         <v>192.7</v>
@@ -2575,10 +2521,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4">
         <v>140.30000000000001</v>
@@ -2640,10 +2586,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4">
         <v>443.5</v>
@@ -2705,10 +2651,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4">
         <v>204</v>
@@ -2770,10 +2716,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4">
         <v>81.099999999999994</v>
@@ -2835,10 +2781,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4">
         <v>119</v>
@@ -2900,10 +2846,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4">
         <v>2493.9</v>
@@ -2965,10 +2911,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4">
         <v>710.4</v>
@@ -3030,10 +2976,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4">
         <v>100.1</v>
@@ -3095,10 +3041,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C34" s="4">
         <v>86.1</v>
@@ -3160,10 +3106,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C35" s="4">
         <v>203.6</v>
@@ -3225,10 +3171,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4">
         <v>112.5</v>
@@ -3290,10 +3236,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4">
         <v>432.7</v>
@@ -3355,10 +3301,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4">
         <v>621.4</v>
@@ -3420,10 +3366,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4">
         <v>206.7</v>
@@ -3485,10 +3431,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4">
         <v>889.4</v>
@@ -3550,10 +3496,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C41" s="4">
         <v>1000.5</v>
@@ -3615,10 +3561,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C42" s="4">
         <v>210.8</v>
@@ -3680,10 +3626,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4">
         <v>194</v>
@@ -3745,10 +3691,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4">
         <v>116.4</v>
@@ -3810,10 +3756,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C45" s="4">
         <v>488</v>
@@ -3875,10 +3821,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C46" s="4">
         <v>714.6</v>
@@ -3940,10 +3886,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C47" s="4">
         <v>182.1</v>
@@ -4005,10 +3951,10 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C48" s="4">
         <v>57.5</v>
@@ -4070,10 +4016,10 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4">
         <v>34</v>
@@ -4135,10 +4081,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C50" s="4">
         <v>227.5</v>
@@ -4200,10 +4146,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4">
         <v>35.799999999999997</v>
@@ -4265,10 +4211,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4">
         <v>32.700000000000003</v>
@@ -4330,10 +4276,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C53" s="4">
         <v>118.2</v>
@@ -4395,10 +4341,10 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4">
         <v>32.6</v>
@@ -4460,10 +4406,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C55" s="4">
         <v>742</v>
@@ -4525,10 +4471,10 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C56" s="4">
         <v>227.8</v>
@@ -4590,10 +4536,10 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C57" s="4">
         <v>110.2</v>
@@ -4655,10 +4601,10 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C58" s="4">
         <v>362</v>
@@ -4720,10 +4666,10 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C59" s="4">
         <v>51.1</v>
@@ -4785,10 +4731,10 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C60" s="4">
         <v>2960.9</v>
@@ -4850,10 +4796,10 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C61" s="4">
         <v>1131</v>
@@ -4915,10 +4861,10 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C62" s="4">
         <v>451.9</v>
@@ -4980,10 +4926,10 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C63" s="4">
         <v>188.1</v>
@@ -5045,10 +4991,10 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C64" s="4">
         <v>437.6</v>
@@ -5110,10 +5056,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C65" s="4">
         <v>64.099999999999994</v>
@@ -5175,10 +5121,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4">
         <v>1852.2</v>
@@ -5240,10 +5186,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4">
         <v>1663.8</v>
@@ -5305,10 +5251,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C68" s="4">
         <v>1215</v>
@@ -5370,10 +5316,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C69" s="4">
         <v>462.7</v>
@@ -5435,10 +5381,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4">
         <v>189.5</v>
@@ -5500,10 +5446,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C71" s="4">
         <v>1858</v>
@@ -5565,10 +5511,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C72" s="4">
         <v>1082.4000000000001</v>
@@ -5630,10 +5576,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C73" s="4">
         <v>254.2</v>
@@ -5695,10 +5641,10 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4">
         <v>129.6</v>
@@ -5760,10 +5706,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C75" s="4">
         <v>710.5</v>
@@ -5825,10 +5771,10 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4">
         <v>323.8</v>
@@ -5890,10 +5836,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C77" s="4">
         <v>454.5</v>
@@ -5955,10 +5901,10 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C78" s="4">
         <v>397</v>
@@ -6020,10 +5966,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C79" s="4">
         <v>57.9</v>
@@ -6085,10 +6031,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4">
         <v>1321.2</v>
@@ -6150,10 +6096,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4">
         <v>174.8</v>
@@ -6215,10 +6161,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C82" s="4">
         <v>1146.5999999999999</v>
@@ -6280,10 +6226,10 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C83" s="4">
         <v>516</v>
@@ -6345,10 +6291,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4">
         <v>397.6</v>
@@ -6410,10 +6356,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C85" s="4">
         <v>144.69999999999999</v>
@@ -6475,10 +6421,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4">
         <v>89.5</v>
@@ -6540,10 +6486,10 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C87" s="4">
         <v>782.8</v>
@@ -6605,10 +6551,10 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C88" s="4">
         <v>181</v>
@@ -6670,10 +6616,10 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C89" s="4">
         <v>90.4</v>
@@ -6735,10 +6681,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C90" s="4">
         <v>89.8</v>
@@ -6800,10 +6746,10 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C91" s="4">
         <v>602.29999999999995</v>
@@ -6865,10 +6811,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C92" s="4">
         <v>163.9</v>
@@ -6930,10 +6876,10 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C93" s="4">
         <v>437.8</v>
@@ -6995,10 +6941,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C94" s="4">
         <v>511.5</v>
@@ -7060,10 +7006,10 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C95" s="4">
         <v>2527</v>
@@ -7125,10 +7071,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C96" s="4">
         <v>781</v>
@@ -7190,10 +7136,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C97" s="4">
         <v>680</v>
@@ -7255,10 +7201,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C98" s="4">
         <v>449.1</v>
@@ -7320,10 +7266,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C99" s="4">
         <v>231.2</v>
@@ -7385,10 +7331,10 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C100" s="4">
         <v>101.8</v>
@@ -7450,10 +7396,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C101" s="4">
         <v>1746.4</v>
@@ -7515,10 +7461,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C102" s="4">
         <v>1553.4</v>
@@ -7580,10 +7526,10 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C103" s="4">
         <v>192.9</v>
@@ -7645,10 +7591,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C104" s="4">
         <v>-382.6</v>
@@ -7710,10 +7656,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>5</v>
@@ -7775,10 +7721,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C106" s="4">
         <v>6385.1</v>
@@ -7840,10 +7786,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C107" s="4">
         <v>11112</v>
@@ -7905,10 +7851,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C108" s="4">
         <v>692.8</v>
@@ -7970,7 +7916,7 @@
     </row>
     <row r="109" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -7995,7 +7941,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -8020,7 +7966,7 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -8045,7 +7991,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -8070,7 +8016,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
